--- a/data/topics-activities/twcs-AppleSupport-inbound-topics.xlsx
+++ b/data/topics-activities/twcs-AppleSupport-inbound-topics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/electric/data/topics-activities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/ericsson/data/topics-activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A81575-1B0A-9347-A8E0-1E60FD0B2BC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB31EE6-265B-C347-BDB6-A511F06766D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34000" yWindow="2800" windowWidth="23900" windowHeight="14440" xr2:uid="{501AD8FD-8D56-5243-B696-BF2AE55086D1}"/>
+    <workbookView xWindow="-28240" yWindow="1840" windowWidth="23900" windowHeight="14440" xr2:uid="{501AD8FD-8D56-5243-B696-BF2AE55086D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,15 +102,6 @@
     <t>This example is about ipad</t>
   </si>
   <si>
-    <t>This example is about Mac</t>
-  </si>
-  <si>
-    <t>The example is about iCloud</t>
-  </si>
-  <si>
-    <t>The example is itunes</t>
-  </si>
-  <si>
     <t>This example is about refund</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>refund</t>
+  </si>
+  <si>
+    <t>The example is about Mac</t>
+  </si>
+  <si>
+    <t>The sentence is about icloud</t>
+  </si>
+  <si>
+    <t>The example is iTunes</t>
   </si>
 </sst>
 </file>
@@ -521,9 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572BCF14-BE78-3C4C-89D3-CE46DA169CBA}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -559,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -576,22 +574,22 @@
         <v>0.82</v>
       </c>
       <c r="E2">
-        <v>0.94108759162954958</v>
+        <v>0.93932292750621427</v>
       </c>
       <c r="F2">
         <v>0.97</v>
       </c>
       <c r="G2">
-        <v>0.97097315869694401</v>
+        <v>0.97080663208218898</v>
       </c>
       <c r="H2">
-        <v>0.96599430599430602</v>
+        <v>0.96590909090909083</v>
       </c>
       <c r="I2">
         <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -608,22 +606,22 @@
         <v>0.86999999999999988</v>
       </c>
       <c r="E3">
-        <v>0.89534514379919639</v>
+        <v>0.89040412662537027</v>
       </c>
       <c r="F3">
         <v>0.96</v>
       </c>
       <c r="G3">
-        <v>0.96512096774193556</v>
+        <v>0.96607909939268255</v>
       </c>
       <c r="H3">
-        <v>0.91482038429406853</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="I3">
         <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -637,25 +635,25 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>0.82999999999999985</v>
+        <v>0.82</v>
       </c>
       <c r="E4">
-        <v>0.94723185997308923</v>
+        <v>0.94072222115925452</v>
       </c>
       <c r="F4">
         <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.99451951951951956</v>
+        <v>0.99453551912568305</v>
       </c>
       <c r="H4">
-        <v>0.94920634920634916</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="I4">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -669,25 +667,25 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.99700000000000011</v>
+        <v>0.998</v>
       </c>
       <c r="E5">
-        <v>0.88340894750336962</v>
+        <v>0.87934215774378044</v>
       </c>
       <c r="F5">
-        <v>0.9850000000000001</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G5">
-        <v>0.9</v>
+        <v>0.89285714285714279</v>
       </c>
       <c r="H5">
-        <v>0.88000000000000012</v>
+        <v>0.88</v>
       </c>
       <c r="I5">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -719,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -730,28 +728,28 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>0.93999999999999984</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="E7">
-        <v>0.81878946427126764</v>
+        <v>0.76394368355648257</v>
       </c>
       <c r="F7">
         <v>0.98499999999999999</v>
       </c>
       <c r="G7">
-        <v>0.94487179487179485</v>
+        <v>0.91151202749140903</v>
       </c>
       <c r="H7">
-        <v>0.79999999999999993</v>
+        <v>0.76923076923076916</v>
       </c>
       <c r="I7">
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -762,28 +760,28 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="E8">
-        <v>0.85617841453832044</v>
+        <v>0.81443211092126233</v>
       </c>
       <c r="F8">
-        <v>0.99004975124378103</v>
+        <v>0.995</v>
       </c>
       <c r="G8">
-        <v>0.99494949494949492</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="H8">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -794,28 +792,28 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>0.87999999999999989</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="E9">
-        <v>0.87111303541295126</v>
+        <v>0.86382457327921347</v>
       </c>
       <c r="F9">
-        <v>0.98499999999999999</v>
+        <v>0.995</v>
       </c>
       <c r="G9">
-        <v>0.99234693877551017</v>
+        <v>0.875</v>
       </c>
       <c r="H9">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -826,7 +824,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>0.98199999999999998</v>
@@ -847,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
